--- a/spreadsheet/macrofree/iot_hub_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/iot_hub_checklist.zh-Hant.xlsx
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>利用可用區（如果區域適用）（此功能會自動啟用）</t>
+          <t>利用可用區（如果區域適用）（這是自動啟用的）</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1086,7 +1086,7 @@
       <c r="G8" s="21" t="n"/>
       <c r="H8" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/iot-hub/iot-hub-ha-dr#availability-zones</t>
+          <t>https://learn.microsoft.com/azure/iot-hub/iot-hub-ha-dr#availability-zones</t>
         </is>
       </c>
       <c r="I8" s="15" t="n"/>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>請注意 Microsoft 發起的故障轉移。在極少數情況下，Microsoft 會執行這些操作，以將所有IoT中心從受影響的區域故障轉移到相應的地理配對區域。</t>
+          <t>請注意 Microsoft 發起的故障轉移。Microsoft 在極少數情況下會執行這些操作，以將所有IoT中心從受影響的區域故障轉移到相應的異地配對區域。</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1132,7 +1132,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/iot-hub/iot-hub-ha-dr#microsoft-initiated-failover</t>
+          <t>https://learn.microsoft.com/azure/iot-hub/iot-hub-ha-dr#microsoft-initiated-failover</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>考慮針對關鍵工作負載的跨區域災難恢復策略</t>
+          <t>考慮為關鍵工作負載制定跨區域災難恢復策略</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1178,7 +1178,7 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/iot-hub/iot-hub-ha-dr#cross-region-dr</t>
+          <t>https://learn.microsoft.com/azure/iot-hub/iot-hub-ha-dr#cross-region-dr</t>
         </is>
       </c>
       <c r="I10" s="15" t="n"/>
@@ -1224,7 +1224,7 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/iot-hub/iot-hub-ha-dr#microsoft-initiated-failover</t>
+          <t>https://learn.microsoft.com/azure/iot-hub/iot-hub-ha-dr#microsoft-initiated-failover</t>
         </is>
       </c>
       <c r="I11" s="15" t="n"/>
@@ -1270,7 +1270,7 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/iot-hub/iot-hub-ha-dr#failback</t>
+          <t>https://learn.microsoft.com/azure/iot-hub/iot-hub-ha-dr#failback</t>
         </is>
       </c>
       <c r="I12" s="15" t="n"/>
@@ -6085,7 +6085,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>有一個與此檢查關聯的措施項</t>
+          <t>有一個與此檢查關聯的操作項</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -6134,7 +6134,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>建議已理解，但當前要求不需要</t>
+          <t>建議已理解，但當前需求不需要</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
